--- a/collab/momentumScripts/OutputMonthly/Stocks.xlsx
+++ b/collab/momentumScripts/OutputMonthly/Stocks.xlsx
@@ -3013,7 +3013,7 @@
         <v>24</v>
       </c>
       <c r="O2" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="P2" t="n">
         <v>32.55</v>
@@ -3074,7 +3074,7 @@
         <v>39</v>
       </c>
       <c r="O3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P3" t="n">
         <v>933.75</v>
@@ -3135,7 +3135,7 @@
         <v>52</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
         <v>3858.35</v>
@@ -3196,7 +3196,7 @@
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>80.40000000000001</v>
@@ -3257,7 +3257,7 @@
         <v>35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>580.6</v>
@@ -3318,7 +3318,7 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P7" t="n">
         <v>178.75</v>
@@ -3379,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
         <v>56.45</v>
@@ -3440,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
         <v>414.15</v>
@@ -3501,7 +3501,7 @@
         <v>22</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>79.2</v>
@@ -3562,7 +3562,7 @@
         <v>19</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
         <v>333.3</v>
@@ -3623,7 +3623,7 @@
         <v>25</v>
       </c>
       <c r="O12" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="P12" t="n">
         <v>524.1</v>
@@ -3684,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="O13" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="P13" t="n">
         <v>318.65</v>
@@ -3745,7 +3745,7 @@
         <v>32</v>
       </c>
       <c r="O14" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="P14" t="n">
         <v>1322.55</v>
@@ -3806,7 +3806,7 @@
         <v>24</v>
       </c>
       <c r="O15" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="P15" t="n">
         <v>2531.25</v>
@@ -3867,7 +3867,7 @@
         <v>24</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
         <v>3692.85</v>
@@ -3928,7 +3928,7 @@
         <v>23</v>
       </c>
       <c r="O17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P17" t="n">
         <v>613.7</v>
@@ -3989,7 +3989,7 @@
         <v>14</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
         <v>139.05</v>
@@ -4050,7 +4050,7 @@
         <v>21</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
         <v>285.35</v>
@@ -4111,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
         <v>185.7</v>
@@ -4172,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="P21" t="n">
         <v>1380.4</v>
@@ -4233,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
         <v>150.2</v>
@@ -4294,7 +4294,7 @@
         <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
         <v>88.25</v>
@@ -4355,7 +4355,7 @@
         <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
         <v>1220.1</v>
@@ -4416,7 +4416,7 @@
         <v>32</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="P25" t="n">
         <v>1085.4</v>
@@ -4477,7 +4477,7 @@
         <v>16</v>
       </c>
       <c r="O26" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="P26" t="n">
         <v>806.1</v>
@@ -4538,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="P27" t="n">
         <v>4384.55</v>
@@ -4599,7 +4599,7 @@
         <v>28</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="P28" t="n">
         <v>4307.45</v>
@@ -4660,7 +4660,7 @@
         <v>31</v>
       </c>
       <c r="O29" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="P29" t="n">
         <v>331.55</v>
@@ -4721,7 +4721,7 @@
         <v>-13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
         <v>58.8</v>
@@ -4782,7 +4782,7 @@
         <v>21</v>
       </c>
       <c r="O31" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P31" t="n">
         <v>225.05</v>
